--- a/expimp/worktechnology.xlsx
+++ b/expimp/worktechnology.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>fa800bc9-c25d-4825-abbb-a6a1039d6518</t>
+          <t>81841461-6f95-42f6-afe4-d94879df2c3f</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>b87c0a90-7b85-4fc7-a529-797b9f4c3ea7</t>
+          <t>4cfa1849-27e4-433d-b417-323d374a51c3</t>
         </is>
       </c>
     </row>
@@ -463,12 +463,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fa800bc9-c25d-4825-abbb-a6a1039d6518</t>
+          <t>81841461-6f95-42f6-afe4-d94879df2c3f</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>fffc1a6a-ea63-4173-92cc-af5a61b343ed</t>
+          <t>d2c37410-178e-4b05-81e3-c1183c937452</t>
         </is>
       </c>
     </row>
